--- a/xlsx/亚利桑那州_intext.xlsx
+++ b/xlsx/亚利桑那州_intext.xlsx
@@ -15,899 +15,893 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="473">
   <si>
     <t>亚利桑那州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>亚利桑那州州旗</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Seal_of_Arizona</t>
+  </si>
+  <si>
+    <t>en-Seal of Arizona</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%B3%BD%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>科罗拉多大峡谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州格言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%B7%9E%E6%AD%8C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州州歌列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_songs_of_Arizona</t>
+  </si>
+  <si>
+    <t>en-State songs of Arizona</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E8%8D%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>纳瓦荷语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%B1%85%E6%B0%91%E7%A7%B0%E8%B0%93%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>区域居民称谓词</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_demonyms_for_U.S._states</t>
+  </si>
+  <si>
+    <t>en-List of demonyms for U.S. states</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>凤凰城 (亚利桑那州)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Phoenix_metropolitan_area</t>
+  </si>
+  <si>
+    <t>en-Phoenix metropolitan area</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Humphreys_Peak</t>
+  </si>
+  <si>
+    <t>en-Humphreys Peak</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AB%BE%E6%8B%89%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>索诺拉州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%B7%9E%E9%95%B7</t>
+  </si>
+  <si>
+    <t>亚利桑那州州长</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Arizona</t>
+  </si>
+  <si>
+    <t>en-List of Governors of Arizona</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%C2%B7%E6%9D%9C%E7%91%9F</t>
+  </si>
+  <si>
+    <t>道格·杜瑟</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Arizona</t>
+  </si>
+  <si>
+    <t>en-List of lieutenant governors of Arizona</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Michele_Reagan</t>
+  </si>
+  <si>
+    <t>en-Michele Reagan</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E8%AE%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>亚利桑那州议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>上议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>亚利桑那州参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>下议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>亚利桑那州众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Arizona</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Arizona</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%BA%A5%E5%87%B1%E6%81%A9</t>
+  </si>
+  <si>
+    <t>约翰·麦凯恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%A4%AB%C2%B7%E5%BC%97%E9%9B%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>杰夫·弗雷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Arizona</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Arizona</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美山区时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E8%AA%BF%E4%B8%96%E7%95%8C%E6%99%82</t>
+  </si>
+  <si>
+    <t>协调世界时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9207:00</t>
+  </si>
+  <si>
+    <t>UTC−07-00</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E4%BB%A4%E6%99%82%E9%96%93</t>
+  </si>
+  <si>
+    <t>夏令时间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E9%9C%8D%E6%97%8F%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>纳瓦霍族保留地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9206:00</t>
+  </si>
+  <si>
+    <t>UTC−06-00</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82</t>
+  </si>
+  <si>
+    <t>世界最大城市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%A7%92%E8%90%BD%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>四角落州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>下加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国本土</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>新西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
+  </si>
+  <si>
+    <t>上加利福尼亚省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美墨战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%B2%E7%99%BB%E8%B3%BC%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>盖兹登购地</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Southern_Arizona</t>
+  </si>
+  <si>
+    <t>en-Southern Arizona</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Northern_Arizona</t>
+  </si>
+  <si>
+    <t>en-Northern Arizona</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>花旗松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E6%9D%89%E5%B1%9E</t>
+  </si>
+  <si>
+    <t>云杉属</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%AB%98%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>科罗拉多高原</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/San_Francisco_Peaks</t>
+  </si>
+  <si>
+    <t>en-San Francisco Peaks</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%BD%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>峡谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E6%A0%BC%E6%96%AF%E5%A1%94%E5%A4%AB_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>弗拉格斯塔夫 (亚利桑那州)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Alpine,_Arizona</t>
+  </si>
+  <si>
+    <t>en-Alpine, Arizona</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>图森 (亚利桑那州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E9%9B%AA</t>
+  </si>
+  <si>
+    <t>滑雪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>大峡谷国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97</t>
+  </si>
+  <si>
+    <t>美国国家森林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Indian_reservations_in_Arizona</t>
+  </si>
+  <si>
+    <t>en-List of Indian reservations in Arizona</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Indigenous_peoples_of_Arizona</t>
+  </si>
+  <si>
+    <t>en-Indigenous peoples of Arizona</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Indian_Citizenship_Act</t>
+  </si>
+  <si>
+    <t>en-Indian Citizenship Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E7%89%B9%E7%88%BE%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>纳瓦特尔语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>亚利桑那州历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E8%BE%BE%E5%8D%A2%E4%BD%A9-%E4%BC%8A%E8%BE%BE%E5%B0%94%E6%88%88%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>瓜达卢佩-伊达尔戈条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AF%BA%E5%85%B0%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>索诺兰沙漠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>莫哈韦沙漠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E6%A0%91</t>
+  </si>
+  <si>
+    <t>松树</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E8%BF%87%E6%B8%A1%E5%9C%B0%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>亚利桑那州过渡地带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>亚利桑那州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%9A%E7%BE%8A%E5%B3%BD%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>羚羊峡谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%A1%91</t>
+  </si>
+  <si>
+    <t>土桑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>梅萨 (亚利桑那州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E4%BD%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>坦佩 (亚利桑那州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%B2%B1%E7%88%BE</t>
+  </si>
+  <si>
+    <t>格兰岱尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%8C%A8%E4%BB%A3%E7%88%BE_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>斯科茨代尔 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%A6%AC_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>尤马 (亚利桑那州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>凤凰城大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>大峡谷大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>亚利桑那大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>北亚利桑那大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>亚利桑那州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9F%8F%E7%91%9E%E5%BE%B7%E8%88%AA%E7%A9%BA%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>安柏瑞德航空大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%A4%A9%E6%B8%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>凤凰城天港国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>美国航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>西南航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/10%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>10号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/8%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>8号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>40号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/17%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>17号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NFL</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E7%BA%A2%E9%9B%80</t>
+  </si>
+  <si>
+    <t>亚利桑那红雀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国职棒大联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
+  </si>
+  <si>
+    <t>亚利桑那响尾蛇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Arizona_Rookie_League</t>
+  </si>
+  <si>
+    <t>en-Arizona Rookie League</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NBA</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%A4%AA%E9%99%BD</t>
+  </si>
+  <si>
+    <t>凤凰城太阳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/WNBA</t>
+  </si>
+  <si>
+    <t>WNBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E6%B0%B4%E6%98%9F</t>
+  </si>
+  <si>
+    <t>凤凰城水星</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NHL</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%9C%9F%E7%8B%BC</t>
+  </si>
+  <si>
+    <t>凤凰城土狼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
+  </si>
+  <si>
+    <t>日光节约时间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E7%B4%84%E6%97%8F</t>
+  </si>
+  <si>
+    <t>纳瓦约族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E5%87%B1%E7%88%BE</t>
+  </si>
+  <si>
+    <t>琼·凯尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%BA%A6%E5%87%AF%E6%81%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/U.S._Census_Bureau</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/United_States_Geological_Survey</t>
+  </si>
+  <si>
+    <t>United States Geological Survey</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/North_American_Vertical_Datum_of_1988</t>
+  </si>
+  <si>
+    <t>en-North American Vertical Datum of 1988</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%8F%B7%E6%88%98%E5%88%97%E8%88%B0%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
+  </si>
+  <si>
+    <t>美国海军亚利桑那号战列舰纪念馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Arizona</t>
+  </si>
+  <si>
+    <t>Template talk-Arizona</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_亚利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>亞利桑那州州旗</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Seal_of_Arizona</t>
-  </si>
-  <si>
-    <t>en-Seal of Arizona</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%B3%BD%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>科羅拉多大峽谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%B7%9E%E6%AD%8C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州州歌列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_songs_of_Arizona</t>
-  </si>
-  <si>
-    <t>en-State songs of Arizona</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E8%8D%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>納瓦荷語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%B1%85%E6%B0%91%E7%A7%B0%E8%B0%93%E8%AF%8D</t>
-  </si>
-  <si>
-    <t>区域居民称谓词</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_demonyms_for_U.S._states</t>
-  </si>
-  <si>
-    <t>en-List of demonyms for U.S. states</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>鳳凰城 (亞利桑那州)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Phoenix_metropolitan_area</t>
-  </si>
-  <si>
-    <t>en-Phoenix metropolitan area</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Humphreys_Peak</t>
-  </si>
-  <si>
-    <t>en-Humphreys Peak</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科羅拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AB%BE%E6%8B%89%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>索諾拉州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%B7%9E%E9%95%B7</t>
-  </si>
-  <si>
-    <t>亞利桑那州州長</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Arizona</t>
-  </si>
-  <si>
-    <t>en-List of Governors of Arizona</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%C2%B7%E6%9D%9C%E7%91%9F</t>
-  </si>
-  <si>
-    <t>道格·杜瑟</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Arizona</t>
-  </si>
-  <si>
-    <t>en-List of lieutenant governors of Arizona</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Michele_Reagan</t>
-  </si>
-  <si>
-    <t>en-Michele Reagan</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E8%AE%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>亚利桑那州议会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>上议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>亚利桑那州参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>下议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>亚利桑那州众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Arizona</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Arizona</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%BA%A5%E5%87%B1%E6%81%A9</t>
-  </si>
-  <si>
-    <t>約翰·麥凱恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%A4%AB%C2%B7%E5%BC%97%E9%9B%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>杰夫·弗雷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Arizona</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Arizona</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美山区时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E8%AA%BF%E4%B8%96%E7%95%8C%E6%99%82</t>
-  </si>
-  <si>
-    <t>協調世界時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9207:00</t>
-  </si>
-  <si>
-    <t>UTC−07-00</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E4%BB%A4%E6%99%82%E9%96%93</t>
-  </si>
-  <si>
-    <t>夏令時間</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E9%9C%8D%E6%97%8F%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>纳瓦霍族保留地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9206:00</t>
-  </si>
-  <si>
-    <t>UTC−06-00</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州面積列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82</t>
-  </si>
-  <si>
-    <t>世界最大城市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%A7%92%E8%90%BD%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>四角落州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>猶他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內華達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>下加利福尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美國本土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>新西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
-  </si>
-  <si>
-    <t>上加利福尼亞省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美墨戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%B2%E7%99%BB%E8%B3%BC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>蓋茲登購地</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Southern_Arizona</t>
-  </si>
-  <si>
-    <t>en-Southern Arizona</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Northern_Arizona</t>
-  </si>
-  <si>
-    <t>en-Northern Arizona</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>花旗松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E6%9D%89%E5%B1%9E</t>
-  </si>
-  <si>
-    <t>云杉属</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%AB%98%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>科羅拉多高原</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/San_Francisco_Peaks</t>
-  </si>
-  <si>
-    <t>en-San Francisco Peaks</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%BD%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>峽谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E6%A0%BC%E6%96%AF%E5%A1%94%E5%A4%AB_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>弗拉格斯塔夫 (亞利桑那州)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Alpine,_Arizona</t>
-  </si>
-  <si>
-    <t>en-Alpine, Arizona</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>圖森 (亞利桑那州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E9%9B%AA</t>
-  </si>
-  <si>
-    <t>滑雪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>大峽谷國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97</t>
-  </si>
-  <si>
-    <t>美国国家森林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Indian_reservations_in_Arizona</t>
-  </si>
-  <si>
-    <t>en-List of Indian reservations in Arizona</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Indigenous_peoples_of_Arizona</t>
-  </si>
-  <si>
-    <t>en-Indigenous peoples of Arizona</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Indian_Citizenship_Act</t>
-  </si>
-  <si>
-    <t>en-Indian Citizenship Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E7%89%B9%E7%88%BE%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>納瓦特爾語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>亚利桑那州历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E8%BE%BE%E5%8D%A2%E4%BD%A9-%E4%BC%8A%E8%BE%BE%E5%B0%94%E6%88%88%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>瓜达卢佩-伊达尔戈条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AF%BA%E5%85%B0%E6%B2%99%E6%BC%A0</t>
-  </si>
-  <si>
-    <t>索诺兰沙漠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
-  </si>
-  <si>
-    <t>莫哈韋沙漠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E6%A0%91</t>
-  </si>
-  <si>
-    <t>松树</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E8%BF%87%E6%B8%A1%E5%9C%B0%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>亚利桑那州过渡地带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>亚利桑那州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%9A%E7%BE%8A%E5%B3%BD%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>羚羊峽谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%A1%91</t>
-  </si>
-  <si>
-    <t>土桑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>梅薩 (亞利桑那州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E4%BD%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>坦佩 (亞利桑那州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%B2%B1%E7%88%BE</t>
-  </si>
-  <si>
-    <t>格蘭岱爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%8C%A8%E4%BB%A3%E7%88%BE_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>斯科茨代爾 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%A6%AC_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>尤馬 (亞利桑那州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>凤凰城大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>大峽谷大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>亚利桑那大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>北亞利桑那大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>亞利桑那州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9F%8F%E7%91%9E%E5%BE%B7%E8%88%AA%E7%A9%BA%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>安柏瑞德航空大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%A4%A9%E6%B8%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>鳳凰城天港國際機場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>美國航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>西南航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/10%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>10號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/8%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>8號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>40號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/17%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>17號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NFL</t>
-  </si>
-  <si>
-    <t>NFL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E7%BA%A2%E9%9B%80</t>
-  </si>
-  <si>
-    <t>亚利桑那红雀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國職棒大聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
-  </si>
-  <si>
-    <t>亞利桑那響尾蛇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Arizona_Rookie_League</t>
-  </si>
-  <si>
-    <t>en-Arizona Rookie League</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NBA</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%A4%AA%E9%99%BD</t>
-  </si>
-  <si>
-    <t>鳳凰城太陽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/WNBA</t>
-  </si>
-  <si>
-    <t>WNBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E6%B0%B4%E6%98%9F</t>
-  </si>
-  <si>
-    <t>鳳凰城水星</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NHL</t>
-  </si>
-  <si>
-    <t>NHL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%9C%9F%E7%8B%BC</t>
-  </si>
-  <si>
-    <t>鳳凰城土狼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
-  </si>
-  <si>
-    <t>日光節約時間</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E7%B4%84%E6%97%8F</t>
-  </si>
-  <si>
-    <t>納瓦約族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E5%87%B1%E7%88%BE</t>
-  </si>
-  <si>
-    <t>瓊·凱爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%BA%A6%E5%87%AF%E6%81%A9</t>
-  </si>
-  <si>
-    <t>约翰·麦凯恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/U.S._Census_Bureau</t>
-  </si>
-  <si>
-    <t>U.S. Census Bureau</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/United_States_Geological_Survey</t>
-  </si>
-  <si>
-    <t>United States Geological Survey</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/North_American_Vertical_Datum_of_1988</t>
-  </si>
-  <si>
-    <t>en-North American Vertical Datum of 1988</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%8F%B7%E6%88%98%E5%88%97%E8%88%B0%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
-  </si>
-  <si>
-    <t>美国海军亚利桑那号战列舰纪念馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Arizona</t>
-  </si>
-  <si>
-    <t>Template talk-Arizona</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
@@ -923,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A5%87%E6%96%AF%E7%B8%A3</t>
   </si>
   <si>
-    <t>科奇斯縣</t>
+    <t>科奇斯县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E5%B0%BC%E8%AF%BA%E5%8E%BF_(%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
@@ -1001,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%A6%AC%E7%B8%A3_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤馬縣 (亞利桑那州)</t>
+    <t>尤马县 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%B8%82%E9%95%87%E5%88%97%E8%A1%A8</t>
@@ -1043,19 +1037,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%8C%A8%E4%BB%A3%E7%88%BE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯科茨代爾 (亞利桑那州)</t>
+    <t>斯科茨代尔 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E6%A3%AE_(%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>图森 (亚利桑那州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -1079,9 +1070,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
   </si>
   <si>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
@@ -1133,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1163,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1175,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1199,15 +1187,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>内华达州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
   </si>
   <si>
@@ -1259,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1289,9 +1274,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>犹他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
   </si>
   <si>
@@ -1313,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1331,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1343,19 +1325,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1373,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1385,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1397,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1409,25 +1391,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1452,15 +1434,6 @@
   </si>
   <si>
     <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3426,7 +3399,7 @@
         <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3452,10 +3425,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3481,10 +3454,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3510,10 +3483,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3539,10 +3512,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3568,10 +3541,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3597,10 +3570,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3626,10 +3599,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3655,10 +3628,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>11</v>
@@ -3684,10 +3657,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3713,10 +3686,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3742,10 +3715,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3771,10 +3744,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3800,10 +3773,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3829,10 +3802,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3858,10 +3831,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3887,10 +3860,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3916,10 +3889,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>6</v>
@@ -3945,10 +3918,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3974,10 +3947,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4003,10 +3976,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4032,10 +4005,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
@@ -4061,10 +4034,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4090,10 +4063,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -4119,10 +4092,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4148,10 +4121,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4177,10 +4150,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4206,10 +4179,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4235,10 +4208,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4264,10 +4237,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4293,10 +4266,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4322,10 +4295,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4351,10 +4324,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4380,10 +4353,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4409,10 +4382,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4438,10 +4411,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4467,10 +4440,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4496,10 +4469,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4525,10 +4498,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4554,10 +4527,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>11</v>
@@ -4583,10 +4556,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4612,10 +4585,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4641,10 +4614,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4670,10 +4643,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4699,10 +4672,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4728,10 +4701,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4757,10 +4730,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4786,10 +4759,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4815,10 +4788,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4844,10 +4817,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4873,10 +4846,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4902,10 +4875,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4931,10 +4904,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4960,10 +4933,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4989,10 +4962,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5018,10 +4991,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5047,10 +5020,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5076,10 +5049,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5105,10 +5078,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5134,10 +5107,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5163,10 +5136,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5192,10 +5165,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5221,10 +5194,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5250,10 +5223,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5279,10 +5252,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -5308,10 +5281,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5337,10 +5310,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5366,10 +5339,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5395,10 +5368,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5424,10 +5397,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5453,10 +5426,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5482,10 +5455,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5511,10 +5484,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F128" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5540,10 +5513,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5569,10 +5542,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5598,10 +5571,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5627,10 +5600,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5656,10 +5629,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5685,10 +5658,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5714,10 +5687,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5743,10 +5716,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5772,10 +5745,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5801,10 +5774,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5830,10 +5803,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5859,10 +5832,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5888,10 +5861,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5917,10 +5890,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5946,10 +5919,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5975,10 +5948,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6004,10 +5977,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6033,10 +6006,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6062,10 +6035,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6091,10 +6064,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6120,10 +6093,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6149,10 +6122,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6178,10 +6151,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6207,10 +6180,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6236,10 +6209,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6265,10 +6238,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -6294,13 +6267,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6323,13 +6296,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="F156" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6352,13 +6325,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="G157" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6381,13 +6354,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6410,10 +6383,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6439,10 +6412,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6468,10 +6441,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6497,10 +6470,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6526,10 +6499,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6555,10 +6528,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6584,10 +6557,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6613,10 +6586,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6642,10 +6615,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6671,10 +6644,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6700,10 +6673,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6729,10 +6702,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6758,10 +6731,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6787,10 +6760,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6816,13 +6789,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -6845,10 +6818,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -6874,13 +6847,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -6903,10 +6876,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6932,10 +6905,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>219</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6961,10 +6934,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6990,10 +6963,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="F179" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7019,10 +6992,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="F180" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7048,13 +7021,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F181" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7077,13 +7050,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7106,10 +7079,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7135,13 +7108,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>158</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7164,10 +7137,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7193,10 +7166,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7222,10 +7195,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F187" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7251,13 +7224,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G188" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7280,13 +7253,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="F189" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G189" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7309,13 +7282,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="F190" t="s">
-        <v>356</v>
+        <v>124</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7338,10 +7311,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7367,13 +7340,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F192" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -7396,13 +7369,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7425,10 +7398,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7454,10 +7427,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F195" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7483,10 +7456,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F196" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7512,10 +7485,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F197" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7541,10 +7514,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7570,10 +7543,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F199" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7599,10 +7572,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7628,10 +7601,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7657,10 +7630,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7686,10 +7659,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7715,10 +7688,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7744,10 +7717,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7773,10 +7746,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F206" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7802,10 +7775,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7831,10 +7804,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7860,10 +7833,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7889,10 +7862,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7918,10 +7891,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F211" t="s">
-        <v>398</v>
+        <v>118</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7947,10 +7920,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7976,13 +7949,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8005,13 +7978,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>113</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>114</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8034,10 +8007,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8063,10 +8036,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8092,10 +8065,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8121,10 +8094,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="F218" t="s">
-        <v>210</v>
+        <v>403</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8150,10 +8123,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>207</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>208</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8179,10 +8152,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8208,10 +8181,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8237,10 +8210,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8266,10 +8239,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8295,10 +8268,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8324,10 +8297,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8353,10 +8326,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8382,10 +8355,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>116</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8411,13 +8384,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8440,10 +8413,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8469,13 +8442,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -8498,10 +8471,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8527,10 +8500,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8556,10 +8529,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8585,10 +8558,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8614,10 +8587,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8643,10 +8616,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8672,10 +8645,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8701,10 +8674,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8730,10 +8703,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8759,10 +8732,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8788,10 +8761,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8817,10 +8790,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8846,10 +8819,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8875,10 +8848,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8904,10 +8877,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8933,10 +8906,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8962,10 +8935,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8991,10 +8964,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9020,10 +8993,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9049,10 +9022,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9078,10 +9051,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9107,10 +9080,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9136,13 +9109,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9165,47 +9138,18 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G254" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>0</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1</v>
-      </c>
-      <c r="D255" t="n">
-        <v>254</v>
-      </c>
-      <c r="E255" t="s">
-        <v>479</v>
-      </c>
-      <c r="F255" t="s">
-        <v>481</v>
-      </c>
-      <c r="G255" t="n">
-        <v>1</v>
-      </c>
-      <c r="H255" t="s">
-        <v>4</v>
-      </c>
-      <c r="I255" t="n">
         <v>3</v>
       </c>
     </row>
